--- a/entryfile.xlsx
+++ b/entryfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkorevaar/Documents/GitHub/sommierfoncier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkorevaar/Documents/GitHub/sommier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3371DF1-6A5C-814A-869F-1CAAEDCE0FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E94ECC1-FB62-8343-9E65-87956D424A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="1320" windowWidth="38400" windowHeight="21600" xr2:uid="{70AAC48F-2429-FB44-ACD2-27D89C37B51E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{70AAC48F-2429-FB44-ACD2-27D89C37B51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t>EntryID</t>
   </si>
@@ -134,22 +134,13 @@
     <t>Licitation</t>
   </si>
   <si>
-    <t>THIS IS UP TO IMG_5617</t>
-  </si>
-  <si>
     <t>OrderNo</t>
-  </si>
-  <si>
-    <t>Length</t>
   </si>
   <si>
     <t>l'Hotel de l'Europe</t>
   </si>
   <si>
     <t>6_12_20</t>
-  </si>
-  <si>
-    <t>ExtraTax</t>
   </si>
   <si>
     <t>first 2 years for 4000</t>
@@ -159,6 +150,9 @@
   </si>
   <si>
     <t>3_6_9</t>
+  </si>
+  <si>
+    <t>Length  (Bail ONLY)</t>
   </si>
 </sst>
 </file>
@@ -514,21 +508,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9011999E-7C1A-6D4F-BC83-053129227A9E}">
-  <dimension ref="A1:S3039"/>
+  <dimension ref="A1:R3038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="5" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -569,36 +564,33 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2">
-        <v>215</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -607,34 +599,34 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>7</v>
       </c>
       <c r="M2">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="N2" s="3">
-        <v>0.33</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>4000</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>4020</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -642,34 +634,28 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>1854</v>
+        <v>1815</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>1854</v>
-      </c>
-      <c r="N3" s="3">
-        <v>12</v>
+        <v>1815</v>
       </c>
       <c r="O3">
-        <v>4020</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -685,200 +671,200 @@
       <c r="J4">
         <v>1815</v>
       </c>
-      <c r="K4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>1815</v>
-      </c>
       <c r="O4">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1815</v>
+        <v>1809</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>1809</v>
       </c>
       <c r="O5">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>1809</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M6">
         <v>1809</v>
       </c>
       <c r="O6">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>1809</v>
+        <v>1854</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>1809</v>
+        <v>1855</v>
       </c>
       <c r="O7">
-        <v>47700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
       <c r="J8">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M8">
         <v>1855</v>
       </c>
       <c r="O8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>54111.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>216</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>1855</v>
+        <v>1854</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="O9">
-        <v>54111.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>4800</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>216</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>1854</v>
+        <v>1815</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1816</v>
+      </c>
+      <c r="N10" s="3">
         <v>9</v>
       </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>1854</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="O10">
-        <v>4800</v>
-      </c>
-      <c r="P10">
-        <v>482.3</v>
-      </c>
-      <c r="R10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -886,209 +872,205 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1817</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>1815</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
       <c r="M11">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="N11" s="3">
         <v>9</v>
       </c>
       <c r="O11">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>1817</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>7</v>
+        <v>1767</v>
       </c>
       <c r="M12">
-        <v>1820</v>
-      </c>
-      <c r="N12" s="3">
-        <v>9</v>
-      </c>
-      <c r="O12">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13">
-        <v>1767</v>
+        <v>1771</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>1780</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
+        <v>1787</v>
       </c>
       <c r="M15">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>1849</v>
+      </c>
+      <c r="K16">
         <v>19</v>
       </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>1787</v>
+      <c r="L16">
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1850</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>1849</v>
+        <v>1816</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>1850</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1816</v>
+      </c>
+      <c r="O17">
+        <v>42625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="K18">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O18">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1096,182 +1078,176 @@
         <v>21</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="O19">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
       <c r="J20">
-        <v>1821</v>
-      </c>
-      <c r="K20">
-        <v>25</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>1821</v>
-      </c>
-      <c r="O20">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1842</v>
+      </c>
+      <c r="K21">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>1842</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>217</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>1842</v>
+        <v>1820</v>
       </c>
       <c r="K22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>1842</v>
-      </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1820</v>
+      </c>
+      <c r="N22" s="3">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>217</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>9</v>
       </c>
       <c r="J23">
-        <v>1820</v>
+        <v>1834</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L23">
         <v>9</v>
       </c>
       <c r="M23">
-        <v>1820</v>
+        <v>1835</v>
       </c>
       <c r="N23" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
       </c>
       <c r="J24">
-        <v>1834</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>22</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>1835</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O24">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18000</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
       <c r="K25">
         <v>12</v>
       </c>
@@ -1284,34 +1260,40 @@
       <c r="O25">
         <v>18000</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>1809</v>
+      </c>
+      <c r="K26">
         <v>16</v>
       </c>
-      <c r="K26">
-        <v>12</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
+      <c r="L26">
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>1809</v>
       </c>
       <c r="O26">
-        <v>18000</v>
-      </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1319,28 +1301,28 @@
         <v>21</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O27">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1348,28 +1330,28 @@
         <v>21</v>
       </c>
       <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
       <c r="J28">
-        <v>1818</v>
+        <v>1833</v>
       </c>
       <c r="K28">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>1808</v>
+        <v>1833</v>
       </c>
       <c r="O28">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1377,95 +1359,89 @@
         <v>21</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1833</v>
       </c>
       <c r="K29">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M29">
         <v>1833</v>
       </c>
       <c r="O29">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="C30">
+        <v>218</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>1833</v>
+        <v>1812</v>
       </c>
       <c r="K30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>1833</v>
+        <v>1812</v>
+      </c>
+      <c r="N30" s="3">
+        <v>12</v>
       </c>
       <c r="O30">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="E31">
-        <v>218</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>1820</v>
+      </c>
+      <c r="N31" s="3">
         <v>6</v>
       </c>
-      <c r="J31">
-        <v>1812</v>
-      </c>
-      <c r="K31">
-        <v>18</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31">
-        <v>1812</v>
-      </c>
-      <c r="N31" s="3">
-        <v>12</v>
-      </c>
       <c r="O31">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1473,45 +1449,51 @@
         <v>15</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>1820</v>
-      </c>
-      <c r="N32" s="3">
-        <v>6</v>
+        <v>1834</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="O32">
         <v>4500</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>1834</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>40</v>
+        <v>1810</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1811</v>
       </c>
       <c r="O33">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1519,28 +1501,31 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M34">
         <v>1811</v>
       </c>
       <c r="O34">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>38000</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1548,199 +1533,199 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="K35">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="O35">
-        <v>38000</v>
-      </c>
-      <c r="Q35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J36">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L36">
         <v>9</v>
       </c>
       <c r="M36">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="O36">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1819</v>
+        <v>1845</v>
       </c>
       <c r="K37">
+        <v>18</v>
+      </c>
+      <c r="L37">
         <v>8</v>
       </c>
-      <c r="L37">
-        <v>9</v>
-      </c>
       <c r="M37">
-        <v>1819</v>
+        <v>1845</v>
       </c>
       <c r="O37">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J38">
         <v>1845</v>
       </c>
       <c r="K38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>1845</v>
       </c>
       <c r="O38">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>84850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="K39">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M39">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="O39">
-        <v>84850</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="C40">
+        <v>219</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40">
+        <v>21</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>1814</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>1814</v>
+      </c>
+      <c r="N40" s="3">
         <v>12</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <v>1853</v>
-      </c>
-      <c r="K40">
-        <v>27</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>1853</v>
-      </c>
       <c r="O40">
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="E41">
-        <v>219</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
       <c r="G41" t="s">
         <v>15</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>1814</v>
       </c>
       <c r="K41">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -1749,45 +1734,46 @@
         <v>1814</v>
       </c>
       <c r="N41" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O41">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>5</v>
       </c>
       <c r="M42">
-        <v>1814</v>
-      </c>
-      <c r="N42" s="3">
-        <v>9</v>
+        <v>1806</v>
       </c>
       <c r="O42">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>24250</v>
+      </c>
+      <c r="P42">
+        <v>0.5</v>
+      </c>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1795,98 +1781,97 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J43">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M43">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="O43">
-        <v>24250</v>
-      </c>
-      <c r="Q43">
-        <v>0.5</v>
-      </c>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H44">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44">
-        <v>1814</v>
-      </c>
-      <c r="K44">
-        <v>8</v>
-      </c>
-      <c r="L44">
-        <v>11</v>
-      </c>
-      <c r="M44">
-        <v>1814</v>
-      </c>
-      <c r="O44">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J45">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>1826</v>
+      </c>
+      <c r="O45">
+        <v>106617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I46">
         <v>9</v>
       </c>
       <c r="J46">
-        <v>1826</v>
+        <v>1832</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <v>1832</v>
+      </c>
+      <c r="N46" s="3">
+        <v>12</v>
       </c>
       <c r="O46">
-        <v>106617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1894,31 +1879,31 @@
         <v>15</v>
       </c>
       <c r="H47">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J47">
-        <v>1832</v>
+        <v>1838</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L47">
         <v>12</v>
       </c>
       <c r="M47">
-        <v>1832</v>
+        <v>1838</v>
       </c>
       <c r="N47" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O47">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1926,63 +1911,60 @@
         <v>15</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>1853</v>
+      </c>
+      <c r="K48">
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>1853</v>
+      </c>
+      <c r="N48" s="3">
         <v>12</v>
       </c>
-      <c r="J48">
-        <v>1838</v>
-      </c>
-      <c r="K48">
-        <v>7</v>
-      </c>
-      <c r="L48">
-        <v>12</v>
-      </c>
-      <c r="M48">
-        <v>1838</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6</v>
-      </c>
       <c r="O48">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <v>1825</v>
+      </c>
+      <c r="K49">
         <v>4</v>
       </c>
-      <c r="J49">
-        <v>1853</v>
-      </c>
-      <c r="K49">
-        <v>21</v>
-      </c>
       <c r="L49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>1853</v>
-      </c>
-      <c r="N49" s="3">
-        <v>12</v>
+        <v>1826</v>
       </c>
       <c r="O49">
-        <v>5510</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1990,121 +1972,124 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I50">
         <v>9</v>
       </c>
       <c r="J50">
-        <v>1825</v>
+        <v>1852</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>1826</v>
+        <v>1852</v>
       </c>
       <c r="O50">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51">
         <v>16</v>
       </c>
-      <c r="H51">
-        <v>23</v>
-      </c>
       <c r="I51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>1852</v>
       </c>
       <c r="K51">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M51">
         <v>1852</v>
       </c>
       <c r="O51">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="C52">
+        <v>220</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52">
+        <v>1789</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
         <v>10</v>
       </c>
-      <c r="J52">
-        <v>1852</v>
-      </c>
-      <c r="K52">
-        <v>26</v>
-      </c>
-      <c r="L52">
-        <v>9</v>
-      </c>
       <c r="M52">
-        <v>1852</v>
+        <v>1789</v>
       </c>
       <c r="O52">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="E53">
-        <v>220</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H53">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M53">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="O53">
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>52000</v>
+      </c>
+      <c r="P53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2112,179 +2097,176 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>1791</v>
+        <v>13</v>
       </c>
       <c r="K54">
-        <v>29</v>
-      </c>
-      <c r="L54">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>1791</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>52000</v>
-      </c>
-      <c r="Q54">
+        <v>72500</v>
+      </c>
+      <c r="P54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55">
         <v>16</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>11</v>
       </c>
-      <c r="I55">
-        <v>5</v>
-      </c>
       <c r="J55">
-        <v>13</v>
-      </c>
-      <c r="K55">
-        <v>9</v>
-      </c>
-      <c r="L55" t="s">
-        <v>26</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
+        <v>1831</v>
       </c>
       <c r="O55">
-        <v>72500</v>
-      </c>
-      <c r="Q55">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J56">
-        <v>1831</v>
+        <v>1839</v>
+      </c>
+      <c r="K56">
+        <v>29</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>1840</v>
       </c>
       <c r="O56">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>14902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57">
         <v>28</v>
       </c>
       <c r="I57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="K57">
         <v>29</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>1840</v>
       </c>
       <c r="O57">
-        <v>14902</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>241608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="C58">
+        <v>221</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>1840</v>
+        <v>1816</v>
       </c>
       <c r="K58">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>1840</v>
+        <v>1817</v>
       </c>
       <c r="O58">
-        <v>241608</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59">
-        <v>221</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H59">
+        <v>26</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>1819</v>
+      </c>
+      <c r="K59">
         <v>6</v>
       </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>1816</v>
-      </c>
-      <c r="K59">
-        <v>21</v>
-      </c>
       <c r="L59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M59">
         <v>1817</v>
       </c>
       <c r="O59">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>193025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2292,123 +2274,118 @@
         <v>21</v>
       </c>
       <c r="H60">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I60">
         <v>7</v>
       </c>
       <c r="J60">
-        <v>1819</v>
+        <v>1831</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M60">
-        <v>1817</v>
+        <v>1826</v>
       </c>
       <c r="O60">
-        <v>193025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61">
-        <v>21</v>
-      </c>
-      <c r="I61">
-        <v>7</v>
-      </c>
-      <c r="J61">
+        <v>27</v>
+      </c>
+      <c r="K61">
+        <v>19</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
         <v>1831</v>
       </c>
-      <c r="K61">
-        <v>22</v>
-      </c>
-      <c r="L61">
-        <v>9</v>
-      </c>
-      <c r="M61">
-        <v>1826</v>
-      </c>
       <c r="O61">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>17</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>1826</v>
       </c>
       <c r="K62">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="O62">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>32500</v>
+      </c>
+      <c r="P62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
       </c>
-      <c r="H63">
-        <v>17</v>
-      </c>
-      <c r="I63">
-        <v>9</v>
-      </c>
-      <c r="J63">
-        <v>1826</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>1827</v>
-      </c>
       <c r="O63">
-        <v>32500</v>
-      </c>
-      <c r="Q63">
+        <v>190000</v>
+      </c>
+      <c r="P63">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <v>1829</v>
       </c>
       <c r="O64">
-        <v>190000</v>
-      </c>
-      <c r="Q64">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>74400</v>
+      </c>
+      <c r="P64">
+        <f>8/40</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2416,419 +2393,424 @@
         <v>21</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>1829</v>
+        <v>1835</v>
       </c>
       <c r="O65">
-        <v>74400</v>
-      </c>
-      <c r="Q65">
-        <f>8/40</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="C66">
+        <v>223</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
       <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>1816</v>
+      </c>
+      <c r="K66">
         <v>21</v>
       </c>
-      <c r="H66">
-        <v>30</v>
-      </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
-      <c r="J66">
-        <v>1835</v>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>1817</v>
       </c>
       <c r="O66">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="E67">
-        <v>223</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J67">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="K67">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="O67">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>83975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="C68">
+        <v>224</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68">
-        <v>1817</v>
+        <v>1845</v>
       </c>
       <c r="K68">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>1818</v>
+        <v>1846</v>
       </c>
       <c r="O68">
-        <v>83975</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>402000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="E69">
-        <v>224</v>
-      </c>
-      <c r="F69">
-        <v>5</v>
-      </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H69">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1845</v>
-      </c>
-      <c r="K69">
-        <v>7</v>
-      </c>
-      <c r="L69">
-        <v>5</v>
-      </c>
-      <c r="M69">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="O69">
-        <v>402000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>497200</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70">
         <v>21</v>
       </c>
-      <c r="H70">
-        <v>27</v>
-      </c>
       <c r="I70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J70">
-        <v>1848</v>
+        <v>1854</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>1854</v>
       </c>
       <c r="O70">
-        <v>497200</v>
-      </c>
-      <c r="R70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>248191.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>1816</v>
+      </c>
+      <c r="K71">
         <v>21</v>
       </c>
-      <c r="I71">
-        <v>7</v>
-      </c>
-      <c r="J71">
-        <v>1854</v>
-      </c>
-      <c r="K71">
-        <v>10</v>
-      </c>
       <c r="L71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>1854</v>
+        <v>1817</v>
       </c>
       <c r="O71">
-        <v>248191.91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>118496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H72">
+        <v>28</v>
+      </c>
+      <c r="I72">
         <v>6</v>
       </c>
-      <c r="I72">
-        <v>5</v>
-      </c>
       <c r="J72">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="K72">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="O72">
-        <v>118496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>166506.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="C73">
+        <v>225</v>
+      </c>
+      <c r="F73">
+        <v>36</v>
+      </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H73">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
       <c r="J73">
-        <v>1819</v>
+        <v>1853</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L73">
         <v>7</v>
       </c>
       <c r="M73">
-        <v>1819</v>
+        <v>1853</v>
+      </c>
+      <c r="N73" s="3">
+        <v>12</v>
       </c>
       <c r="O73">
-        <v>166506.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="E74">
-        <v>225</v>
-      </c>
-      <c r="F74">
-        <v>36</v>
-      </c>
       <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74">
         <v>15</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
       <c r="I74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J74">
-        <v>1853</v>
+        <v>1811</v>
       </c>
       <c r="K74">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M74">
-        <v>1853</v>
-      </c>
-      <c r="N74" s="3">
-        <v>12</v>
+        <v>1811</v>
       </c>
       <c r="O74">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J75">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="K75">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>1811</v>
+        <v>1820</v>
       </c>
       <c r="O75">
-        <v>30800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>40000</v>
+      </c>
+      <c r="P75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H76">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I76">
         <v>9</v>
       </c>
       <c r="J76">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="K76">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M76">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="O76">
-        <v>40000</v>
-      </c>
-      <c r="Q76">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="C77">
+        <v>226</v>
+      </c>
+      <c r="F77">
+        <v>34</v>
+      </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H77">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J77">
-        <v>1822</v>
+        <v>1846</v>
       </c>
       <c r="K77">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M77">
-        <v>1822</v>
+        <v>1846</v>
+      </c>
+      <c r="N77" s="3">
+        <v>14.25</v>
       </c>
       <c r="O77">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <f>1120+1180+120</f>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="E78">
-        <v>226</v>
-      </c>
-      <c r="F78">
-        <v>34</v>
-      </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H78">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>1846</v>
+        <v>1808</v>
       </c>
       <c r="K78">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L78">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>1846</v>
-      </c>
-      <c r="N78" s="3">
-        <v>14.25</v>
+        <v>1808</v>
       </c>
       <c r="O78">
-        <f>1120+1180+120</f>
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2836,97 +2818,97 @@
         <v>17</v>
       </c>
       <c r="H79">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>1841</v>
+      </c>
+      <c r="K79">
         <v>4</v>
       </c>
-      <c r="J79">
-        <v>1808</v>
-      </c>
-      <c r="K79">
-        <v>25</v>
-      </c>
       <c r="L79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M79">
-        <v>1808</v>
+        <v>1841</v>
       </c>
       <c r="O79">
-        <v>13700</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>25495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H80">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J80">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M80">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="O80">
-        <v>25495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H81">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1833</v>
+        <v>1853</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M81">
-        <v>1834</v>
+        <v>1853</v>
       </c>
       <c r="O81">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>38860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H82">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J82">
         <v>1853</v>
@@ -2935,167 +2917,167 @@
         <v>24</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M82">
         <v>1853</v>
       </c>
       <c r="O82">
-        <v>38860</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="C83">
+        <v>227</v>
+      </c>
+      <c r="F83">
+        <v>32</v>
+      </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83">
-        <v>4</v>
-      </c>
-      <c r="I83">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>26</v>
       </c>
       <c r="J83">
-        <v>1853</v>
+        <v>10</v>
       </c>
       <c r="K83">
-        <v>24</v>
-      </c>
-      <c r="L83">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>31</v>
       </c>
       <c r="M83">
-        <v>1853</v>
+        <v>10</v>
       </c>
       <c r="O83">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>23750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="E84">
-        <v>227</v>
-      </c>
-      <c r="F84">
-        <v>32</v>
-      </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H84">
-        <v>18</v>
-      </c>
-      <c r="I84" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>10</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84">
-        <v>10</v>
+        <v>1843</v>
       </c>
       <c r="O84">
-        <v>23750</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>34311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H85">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J85">
-        <v>1843</v>
+        <v>1847</v>
+      </c>
+      <c r="K85">
+        <v>16</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>1847</v>
+      </c>
+      <c r="N85" s="3">
+        <v>12</v>
       </c>
       <c r="O85">
-        <v>34311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="C86">
+        <v>228</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J86">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="K86">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M86">
-        <v>1847</v>
-      </c>
-      <c r="N86" s="3">
-        <v>12</v>
+        <v>1840</v>
       </c>
       <c r="O86">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>25550</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="E87">
-        <v>228</v>
-      </c>
-      <c r="F87">
-        <v>30</v>
-      </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>1840</v>
+        <v>1821</v>
       </c>
       <c r="K87">
         <v>23</v>
       </c>
       <c r="L87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M87">
-        <v>1840</v>
+        <v>1821</v>
       </c>
       <c r="O87">
-        <v>25550</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3103,10 +3085,10 @@
         <v>16</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88">
         <v>1821</v>
@@ -3123,40 +3105,37 @@
       <c r="O88">
         <v>19600</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="P88">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H89">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J89">
         <v>1821</v>
       </c>
-      <c r="K89">
-        <v>23</v>
-      </c>
       <c r="L89">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M89">
         <v>1821</v>
       </c>
-      <c r="O89">
-        <v>19600</v>
-      </c>
-      <c r="Q89">
+      <c r="P89">
         <v>0.25</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3164,77 +3143,80 @@
         <v>21</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J90">
         <v>1821</v>
       </c>
+      <c r="K90">
+        <v>24</v>
+      </c>
       <c r="L90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M90">
         <v>1821</v>
       </c>
-      <c r="Q90">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="O90">
+        <v>18230.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="C91">
+        <v>229</v>
+      </c>
+      <c r="F91">
+        <v>28</v>
+      </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J91">
-        <v>1821</v>
+        <v>1849</v>
       </c>
       <c r="K91">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L91">
         <v>5</v>
       </c>
       <c r="M91">
-        <v>1821</v>
-      </c>
-      <c r="O91">
-        <v>18230.7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>1850</v>
+      </c>
+      <c r="O91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="E92">
-        <v>229</v>
-      </c>
-      <c r="F92">
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>1850</v>
+      </c>
+      <c r="K92">
         <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92">
-        <v>16</v>
-      </c>
-      <c r="I92">
-        <v>11</v>
-      </c>
-      <c r="J92">
-        <v>1849</v>
-      </c>
-      <c r="K92">
-        <v>13</v>
       </c>
       <c r="L92">
         <v>5</v>
@@ -3242,44 +3224,44 @@
       <c r="M92">
         <v>1850</v>
       </c>
-      <c r="O92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="O92">
+        <v>20010</v>
+      </c>
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J93">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="K93">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>1850</v>
+        <v>1846</v>
+      </c>
+      <c r="N93" s="3">
+        <v>24</v>
       </c>
       <c r="O93">
-        <v>20010</v>
-      </c>
-      <c r="R93" t="s">
-        <v>33</v>
-      </c>
-      <c r="S93" s="2"/>
-    </row>
-    <row r="94" spans="1:19">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3287,31 +3269,31 @@
         <v>15</v>
       </c>
       <c r="H94">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I94">
         <v>4</v>
       </c>
       <c r="J94">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="N94" s="3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="O94">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3319,60 +3301,33 @@
         <v>15</v>
       </c>
       <c r="H95">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I95">
         <v>4</v>
       </c>
       <c r="J95">
-        <v>1848</v>
+        <v>1818</v>
       </c>
       <c r="K95">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M95">
-        <v>1848</v>
-      </c>
-      <c r="N95" s="3">
-        <v>3</v>
+        <v>1818</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="O95">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>95</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
-      <c r="H96">
-        <v>22</v>
-      </c>
-      <c r="I96">
-        <v>4</v>
-      </c>
-      <c r="J96">
-        <v>1818</v>
-      </c>
-      <c r="K96">
-        <v>22</v>
-      </c>
-      <c r="L96">
-        <v>10</v>
-      </c>
-      <c r="M96">
-        <v>1818</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O96">
-        <v>1200</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -18083,11 +18038,6 @@
     <row r="3038" spans="1:1">
       <c r="A3038">
         <v>3037</v>
-      </c>
-    </row>
-    <row r="3039" spans="1:1">
-      <c r="A3039">
-        <v>3038</v>
       </c>
     </row>
   </sheetData>

--- a/entryfile.xlsx
+++ b/entryfile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkorevaar/Documents/GitHub/sommier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E94ECC1-FB62-8343-9E65-87956D424A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D671991-9D9A-4A4B-BD5F-0F269A391B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{70AAC48F-2429-FB44-ACD2-27D89C37B51E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{70AAC48F-2429-FB44-ACD2-27D89C37B51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:R3038"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/entryfile.xlsx
+++ b/entryfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkorevaar/Documents/GitHub/sommier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D671991-9D9A-4A4B-BD5F-0F269A391B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A95E888-364E-204D-ACDD-B0258A2AD508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{70AAC48F-2429-FB44-ACD2-27D89C37B51E}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:R3038"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
